--- a/biology/Biologie cellulaire et moléculaire/Neurofilament/Neurofilament.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Neurofilament/Neurofilament.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le neurofilament est le filament intermédiaire trouvé spécifiquement dans les neurones. Cette fibre très fine mesure de 9 à 10 nm de diamètre, généralement regroupée en faisceau, est l'élément de soutien du neurone.
 Les neurofilaments sont des protéines du cytosquelette des neurones de la famille des filaments intermédiaires et s’assemblent pour former des filaments de 9 à 10 nm de diamètre. Le triplet de neurofilaments est composé des protéines NEFL, NEFM et NEFH qui s’assemblent en contractant des interactions de type ‘coil-coiled’ en une structure filamenteuse et dont les parties carboxy-terminales sortent du cœur de la structure filamenteuse.
